--- a/URLHealthCheckAutomation/TestFiles/UrlList.xlsx
+++ b/URLHealthCheckAutomation/TestFiles/UrlList.xlsx
@@ -16,13 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
-  <si>
-    <t>http://www.flipkart.com/</t>
-  </si>
-  <si>
-    <t>https://twitter.com/hashtag/MerryChristmas1DFamily?src=tren</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Production</t>
   </si>
@@ -30,19 +24,10 @@
     <t>App Server</t>
   </si>
   <si>
-    <t>Test Server, Test Services BO</t>
-  </si>
-  <si>
-    <t>Dev</t>
-  </si>
-  <si>
     <t>www.google.com</t>
   </si>
   <si>
     <t>www.iwriter.com</t>
-  </si>
-  <si>
-    <t>http://www.wikipedia.org</t>
   </si>
 </sst>
 </file>
@@ -392,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,51 +392,24 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
     <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A5" r:id="rId3"/>
-    <hyperlink ref="A3" r:id="rId4"/>
-    <hyperlink ref="A4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
